--- a/output/fit_clients/fit_round_115.xlsx
+++ b/output/fit_clients/fit_round_115.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2379677215.880115</v>
+        <v>1754461874.242452</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0701153075107608</v>
+        <v>0.103208291522785</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03135275189183175</v>
+        <v>0.0362227065151846</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1189838654.56418</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2367110403.227168</v>
+        <v>1710136970.81992</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1847998039477036</v>
+        <v>0.1684840883759988</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03187285428164983</v>
+        <v>0.04588724977142682</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1183555298.462346</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3419914137.419387</v>
+        <v>4889728146.864875</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1047484364952219</v>
+        <v>0.1215279559283331</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02661356563334696</v>
+        <v>0.02728988410131861</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>42</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1709957041.730472</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2650277197.233596</v>
+        <v>2726944138.098516</v>
       </c>
       <c r="F5" t="n">
-        <v>0.110787359020028</v>
+        <v>0.08342695651980901</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04318641669851854</v>
+        <v>0.04105116862110562</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1325138691.571239</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1945243999.008103</v>
+        <v>2131976065.615009</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1156198581501991</v>
+        <v>0.1163190692366296</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03519967904177471</v>
+        <v>0.04369022033002434</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>972622034.973343</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1950586750.77617</v>
+        <v>2220815365.859351</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06575152495247627</v>
+        <v>0.09850937706650037</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03209232194042238</v>
+        <v>0.0495898147944995</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>36</v>
-      </c>
-      <c r="J7" t="n">
-        <v>975293441.2786862</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2756783529.06744</v>
+        <v>3201912367.759519</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1418884340487468</v>
+        <v>0.1678313109004911</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03075757340381514</v>
+        <v>0.02765430269924633</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>37</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1378391797.124597</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2316812929.662945</v>
+        <v>1600776299.959949</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1678626944766538</v>
+        <v>0.1681485562689459</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0288385604151825</v>
+        <v>0.03073241705403202</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1158406447.414929</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3628691612.910657</v>
+        <v>5296369077.67722</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2128000369724252</v>
+        <v>0.1741262637946731</v>
       </c>
       <c r="G10" t="n">
-        <v>0.035611104454801</v>
+        <v>0.03497885791024412</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>49</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1814345799.520394</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3207916943.62116</v>
+        <v>3306282665.438076</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1604096051488813</v>
+        <v>0.1176138174147028</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04966210413655254</v>
+        <v>0.04251578568704349</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>48</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1603958429.163786</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2591700825.978968</v>
+        <v>2227167999.81401</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1592688243335336</v>
+        <v>0.1515522252343447</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03325861835118825</v>
+        <v>0.0530158552000825</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>41</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1295850393.542881</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4309707850.549342</v>
+        <v>4651711139.919279</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06963863990596657</v>
+        <v>0.1004526345088935</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02476270003478976</v>
+        <v>0.02991401448204079</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>39</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2154853964.416162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3591941645.091121</v>
+        <v>2458532076.100468</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1437496276110714</v>
+        <v>0.1620395508182121</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03064227724133795</v>
+        <v>0.03622796404158017</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>37</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1795970814.07647</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1676911502.276514</v>
+        <v>1668002591.408391</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09757049997414113</v>
+        <v>0.1079232178190753</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04415207166209593</v>
+        <v>0.04214070151349357</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>838455876.6888518</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2085801611.930174</v>
+        <v>1871810508.366613</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1126492965178159</v>
+        <v>0.07649303696023411</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03503206668287164</v>
+        <v>0.0319529384785201</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>17</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1042900873.735275</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3992759451.539918</v>
+        <v>3839280777.589845</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1424723226199072</v>
+        <v>0.1413105196157716</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04515647673188639</v>
+        <v>0.05306614282672627</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>34</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1996379760.616809</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2742065812.14971</v>
+        <v>3532878080.366511</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1687544042168794</v>
+        <v>0.119319708249745</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03066276610863741</v>
+        <v>0.02099756182725625</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>37</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1371032954.996748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1167524957.220992</v>
+        <v>1138657649.288548</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1841739983614231</v>
+        <v>0.1632486029186906</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01698128417049347</v>
+        <v>0.01768833667027904</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>583762548.5514939</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2107760870.451798</v>
+        <v>1884165419.98616</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09945084949587342</v>
+        <v>0.1278772959652043</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0225314837242176</v>
+        <v>0.02440183415665867</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>14</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1053880450.03844</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2731880992.4547</v>
+        <v>1849451108.746432</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1003496243998779</v>
+        <v>0.08351439015785755</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04296066388400244</v>
+        <v>0.04591001521656082</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>11</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1365940462.130846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2600869153.766395</v>
+        <v>2716569745.365535</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1152530883833412</v>
+        <v>0.1112768164728289</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05133494115531603</v>
+        <v>0.04339658314325565</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>32</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1300434662.265033</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>985786467.4372098</v>
+        <v>1443530574.828605</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1163175693660078</v>
+        <v>0.1302510179960235</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04630306096641724</v>
+        <v>0.04156237392338169</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>492893306.2361977</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3894655078.499845</v>
+        <v>3597167425.577747</v>
       </c>
       <c r="F24" t="n">
-        <v>0.114228777647891</v>
+        <v>0.09982799207007846</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02937854720964983</v>
+        <v>0.02644072782520095</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>34</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1947327514.261789</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1048819626.548382</v>
+        <v>1170196826.592626</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09166558155721356</v>
+        <v>0.0880390631499966</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02541121720306758</v>
+        <v>0.0233879346957864</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>524409865.9666111</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1020993944.370845</v>
+        <v>1215755677.673236</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09664949055856796</v>
+        <v>0.1031457162122798</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03349953862929618</v>
+        <v>0.03049789247667034</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>510496949.3166878</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3042218666.714895</v>
+        <v>3713385326.409802</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1239584870719855</v>
+        <v>0.1332422513579194</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02289952566105241</v>
+        <v>0.01865056494699789</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>26</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1521109391.048674</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3744472089.602103</v>
+        <v>3353686693.463906</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1179120400734587</v>
+        <v>0.1096412555541703</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04415184855235125</v>
+        <v>0.03079052755122503</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>37</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1872236120.574131</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5229957031.941667</v>
+        <v>4959476362.812286</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1485087215479824</v>
+        <v>0.1487797439268872</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0432899839725781</v>
+        <v>0.03525495206240374</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>51</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2614978447.537057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1984441505.973388</v>
+        <v>2213710435.812896</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1239536264045874</v>
+        <v>0.1087348190432465</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03678770426208459</v>
+        <v>0.02632294118477225</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>992220788.594957</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1173574183.343351</v>
+        <v>1159478087.314077</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0929743412400422</v>
+        <v>0.111124879999765</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03784941433991847</v>
+        <v>0.0399905409505421</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>586787049.2989743</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1526714384.562669</v>
+        <v>1234426379.473571</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1034081627719876</v>
+        <v>0.08504631696723132</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03619738322982115</v>
+        <v>0.02808485256233391</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>763357266.105988</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2428305011.189704</v>
+        <v>2345417936.281717</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1688935061793272</v>
+        <v>0.2050856143843702</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05226560732978888</v>
+        <v>0.05206037210086752</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>33</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1214152549.852145</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1370860643.912357</v>
+        <v>1094317411.351726</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07585947323644258</v>
+        <v>0.1033425343610587</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02018771950459189</v>
+        <v>0.02164075347101645</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>685430298.9743279</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1183664731.770909</v>
+        <v>1003300044.10374</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09987881703053068</v>
+        <v>0.0893581088960832</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04272604865062914</v>
+        <v>0.04231224305474371</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>591832344.1325414</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2592279016.735323</v>
+        <v>2548272068.428651</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1735237477958542</v>
+        <v>0.1217291412916537</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01756333344607079</v>
+        <v>0.01808243493840299</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>29</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1296139522.899384</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2795640159.913609</v>
+        <v>2471396045.74914</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08594969503333715</v>
+        <v>0.07842034687284381</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03844196728395571</v>
+        <v>0.02956738387540713</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>30</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1397820216.649631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1508658735.184501</v>
+        <v>1872211294.914226</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1141234970388409</v>
+        <v>0.07849123789042702</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0337975040480414</v>
+        <v>0.03498869240232545</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>754329415.5711008</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1444120179.628</v>
+        <v>1504488485.198453</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1374259739891711</v>
+        <v>0.1826800597133861</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02693460914970636</v>
+        <v>0.02155159469539444</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>722060168.6719228</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1488673595.929195</v>
+        <v>1441420129.184915</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1612501587436609</v>
+        <v>0.1457567501562419</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0476126064690503</v>
+        <v>0.04834891317303624</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>744336766.9120435</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1835090257.94317</v>
+        <v>2441604142.699704</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1507652657432469</v>
+        <v>0.141836147860277</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03913339943367105</v>
+        <v>0.04664833234407777</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>28</v>
-      </c>
-      <c r="J41" t="n">
-        <v>917545219.2482527</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3738095038.69538</v>
+        <v>4023156768.099354</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1020643881265419</v>
+        <v>0.089663177622859</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03124741967579859</v>
+        <v>0.03628504695412723</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>40</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1869047530.553479</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2170205185.806386</v>
+        <v>2879369459.341505</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1491963784205018</v>
+        <v>0.2026874819505668</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02267246419607452</v>
+        <v>0.02144130367356977</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>38</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1085102674.648057</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2215063732.839906</v>
+        <v>2121905343.871843</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1000426690342469</v>
+        <v>0.0886657042217782</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03180937359448289</v>
+        <v>0.03113923270263006</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1107532015.613431</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2011262730.360055</v>
+        <v>1847176625.339321</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1311542571248956</v>
+        <v>0.1546037407595598</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03614587684491462</v>
+        <v>0.03401720841949012</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1005631357.157499</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4843100272.302307</v>
+        <v>4767304231.459457</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1484318300319088</v>
+        <v>0.1352140307587261</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04217034996862766</v>
+        <v>0.05276629476139433</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>41</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2421550153.930923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3919029378.872546</v>
+        <v>3613718995.95008</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1897920557548836</v>
+        <v>0.1613518385670362</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04326343751785725</v>
+        <v>0.05301915092373639</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>31</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1959514683.913874</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3898187304.316215</v>
+        <v>4146639586.343526</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07256758464145953</v>
+        <v>0.08269626233430379</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03793178333148169</v>
+        <v>0.03585872483068157</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>37</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1949093692.378361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1948206902.071057</v>
+        <v>1989715223.532349</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1280160297000197</v>
+        <v>0.1756152425021887</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03714648925553597</v>
+        <v>0.03118192840954414</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>974103413.2902583</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3375587845.974109</v>
+        <v>2607067705.632526</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1581372210052896</v>
+        <v>0.1162779510339052</v>
       </c>
       <c r="G50" t="n">
-        <v>0.032738608511965</v>
+        <v>0.03516634486641424</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>39</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1687793956.044109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>996334960.3481014</v>
+        <v>1534361782.57665</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1636653594318404</v>
+        <v>0.1534149470322274</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03655087879938323</v>
+        <v>0.03346629683712505</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>498167564.6705445</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3495261932.678324</v>
+        <v>3721000254.822547</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1113493978911341</v>
+        <v>0.08441278259126483</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05718370582879807</v>
+        <v>0.05312708244592699</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>48</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1747631052.471482</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2698240827.855638</v>
+        <v>2682793179.641407</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1409966809783842</v>
+        <v>0.1588509245894155</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03186549237430592</v>
+        <v>0.03083483740383358</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>33</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1349120467.158239</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3664693215.173648</v>
+        <v>4643345259.760601</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1626587362621706</v>
+        <v>0.1258292337655665</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04601853368338647</v>
+        <v>0.04396782369195318</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>38</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1832346645.272843</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3677370178.26709</v>
+        <v>3210966666.756704</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1899991140668083</v>
+        <v>0.1964987944195867</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02747749355700933</v>
+        <v>0.03027542215874108</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>32</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1838685049.732805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1753901113.807454</v>
+        <v>1175250237.909915</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1253028926242269</v>
+        <v>0.1462260783188711</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03620347669586348</v>
+        <v>0.03617301847224458</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>876950561.4961629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3694385755.651124</v>
+        <v>4122374011.702495</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1433861414425794</v>
+        <v>0.1346381270249813</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01725422963466224</v>
+        <v>0.01755262943605961</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>37</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1847192940.477943</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1870854003.484298</v>
+        <v>1859940518.906853</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1987749662956555</v>
+        <v>0.1809133366839228</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03225398644263883</v>
+        <v>0.03313284022970004</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>935426998.978392</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4487512785.079978</v>
+        <v>5210116474.674258</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1136695823615671</v>
+        <v>0.1241405491917768</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03707382043991704</v>
+        <v>0.04555885595394163</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>33</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2243756344.930628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2330793416.210949</v>
+        <v>3249258014.23193</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1743728170420568</v>
+        <v>0.2016254230938743</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02238533323806341</v>
+        <v>0.0227945024519431</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>36</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1165396708.221156</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2341895026.709245</v>
+        <v>2383383782.197064</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1382901284808255</v>
+        <v>0.1524668913062066</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02264515607992962</v>
+        <v>0.02914845644177238</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>40</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1170947555.824767</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1328646705.620157</v>
+        <v>1336229341.206564</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1390617960131458</v>
+        <v>0.1494140812749328</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04677099489721581</v>
+        <v>0.04836457398825635</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>664323310.1214359</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3399885022.804025</v>
+        <v>3813300233.047866</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08237800985950636</v>
+        <v>0.1063182480425183</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04547918607994955</v>
+        <v>0.02868797683324687</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>33</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1699942600.496176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4147270160.806641</v>
+        <v>5530650236.376502</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1253450519653989</v>
+        <v>0.13282672038682</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02834825127523158</v>
+        <v>0.02302302074117001</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>36</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2073635126.563811</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4269839341.7476</v>
+        <v>3699438391.12559</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1355020449926087</v>
+        <v>0.1342065258559474</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03030575972020864</v>
+        <v>0.02062472641506782</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>41</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2134919673.298948</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5282428797.22576</v>
+        <v>4263845923.538449</v>
       </c>
       <c r="F66" t="n">
-        <v>0.136265553625107</v>
+        <v>0.1561338309653801</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04293925919875283</v>
+        <v>0.04772449849631171</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>33</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2641214440.853221</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3064239292.593292</v>
+        <v>3484060318.34026</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09857973707333197</v>
+        <v>0.09937184142947574</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04334544880375223</v>
+        <v>0.03546297438559693</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>37</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1532119659.074355</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5205731120.439457</v>
+        <v>3831713315.557038</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1101551665566825</v>
+        <v>0.1163834837690686</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04525323394832984</v>
+        <v>0.03341032402181542</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>37</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2602865629.01671</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2268447084.878715</v>
+        <v>2120525420.761975</v>
       </c>
       <c r="F69" t="n">
-        <v>0.180580078295788</v>
+        <v>0.1150345852414128</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0535068649706012</v>
+        <v>0.05004195452131929</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1134223582.034659</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2250503324.508644</v>
+        <v>2673038694.398517</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07652487079213013</v>
+        <v>0.07410048229313361</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03514050034005774</v>
+        <v>0.03201781477614147</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>33</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1125251590.484136</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4039260337.827878</v>
+        <v>4398975111.125628</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1646018275641864</v>
+        <v>0.1860182464113038</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02396408251320738</v>
+        <v>0.02735392276804225</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>42</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2019630202.838048</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1915136349.231935</v>
+        <v>2103088035.672733</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07279383868682869</v>
+        <v>0.06816390967501224</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05121087082448476</v>
+        <v>0.04048699485340559</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>957568134.6020328</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2507951698.49158</v>
+        <v>3294871986.388154</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06900157558553266</v>
+        <v>0.1056711995054749</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04930221819395808</v>
+        <v>0.04080197409311286</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>44</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1253975890.218527</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3269432345.302175</v>
+        <v>3149761335.762212</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1163598102863155</v>
+        <v>0.1614016161843779</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02956245560227256</v>
+        <v>0.03272691030289835</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>39</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1634716214.714133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2190435845.625915</v>
+        <v>2432369110.308729</v>
       </c>
       <c r="F75" t="n">
-        <v>0.123821186361578</v>
+        <v>0.1268725553252478</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03801778673521148</v>
+        <v>0.03621864107190523</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1095217869.053059</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4382378286.383889</v>
+        <v>4066806464.833896</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08418428876606025</v>
+        <v>0.1143127476034932</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02356156465697622</v>
+        <v>0.02567598358404661</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>25</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2191189143.88683</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2148207467.824171</v>
+        <v>1683967175.618727</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1529245495604289</v>
+        <v>0.1312341088039367</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02363476773205076</v>
+        <v>0.02191541685570019</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1074103817.254923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4186298736.181511</v>
+        <v>4007801078.060925</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1039551407749363</v>
+        <v>0.1306361892860553</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03461317600185513</v>
+        <v>0.05388920468239092</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>41</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2093149320.442785</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1228140560.187751</v>
+        <v>1639594554.857225</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1727848295818641</v>
+        <v>0.1518357189549043</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02948327166804139</v>
+        <v>0.03499199856021443</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>614070266.7125579</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4843385696.001447</v>
+        <v>5181762125.053585</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1020937798560003</v>
+        <v>0.08496099977442594</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03059413754840504</v>
+        <v>0.03840751984521407</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>24</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2421692889.353096</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4907590356.244468</v>
+        <v>4809513208.051108</v>
       </c>
       <c r="F81" t="n">
-        <v>0.117284107271688</v>
+        <v>0.1033640502783318</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02291953969676109</v>
+        <v>0.02499186171589636</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>28</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2453795174.983716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3745223052.492909</v>
+        <v>3504667640.390929</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1358481996077368</v>
+        <v>0.1546410042954161</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02807318549521055</v>
+        <v>0.01815788819184098</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>42</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1872611580.187196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1942141765.484161</v>
+        <v>2461488924.679889</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1403349131117873</v>
+        <v>0.1203937316518703</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03865376379124202</v>
+        <v>0.03262721064955875</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>971070860.7961303</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2455276478.850158</v>
+        <v>2094476682.827866</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1136842410811674</v>
+        <v>0.09185798694424369</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05217736977408098</v>
+        <v>0.03362341542125472</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1227638177.698438</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3546724698.871502</v>
+        <v>3602187333.251777</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1545004359936981</v>
+        <v>0.1365138608954078</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05307351339498855</v>
+        <v>0.03593531379315499</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>43</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1773362469.866961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1721786574.686382</v>
+        <v>2395327183.373664</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1593551124954309</v>
+        <v>0.1224429777159225</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0260705418098781</v>
+        <v>0.02679006833854612</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>860893276.217808</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1374241640.905087</v>
+        <v>1285003163.11603</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1173155593244372</v>
+        <v>0.1813027497823969</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03396026750652986</v>
+        <v>0.02957945587735669</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>687120920.6375787</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3232304461.443166</v>
+        <v>2832695435.580811</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1615073910704103</v>
+        <v>0.1240967672617212</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03924422363882484</v>
+        <v>0.03312359304207409</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>45</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1616152284.073018</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2692773390.515101</v>
+        <v>3105435550.714433</v>
       </c>
       <c r="F89" t="n">
-        <v>0.140333080202992</v>
+        <v>0.1260915818905501</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03088095885905717</v>
+        <v>0.03274424612034282</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>39</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1346386755.837307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2140331693.248029</v>
+        <v>1816355691.76895</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1212518945912883</v>
+        <v>0.09871535482630815</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0467951024540648</v>
+        <v>0.05068286743158356</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1070165942.502011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1498204874.981703</v>
+        <v>1948723099.78378</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1407516001295514</v>
+        <v>0.1646922796223599</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05637189046868649</v>
+        <v>0.04444800861608531</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>749102476.5985122</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2539990339.878137</v>
+        <v>2014982514.495311</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08593692220212477</v>
+        <v>0.09147036983531781</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03582371892337054</v>
+        <v>0.034189719426891</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>27</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1269995156.845915</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3629292255.788242</v>
+        <v>3723672227.789649</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1217584101615754</v>
+        <v>0.1149251161760068</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04891349020719887</v>
+        <v>0.05102205010938393</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>34</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1814646152.446174</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1705440136.712636</v>
+        <v>1703834620.901322</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1447452329582964</v>
+        <v>0.1618538615751243</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03201373045583385</v>
+        <v>0.03007367726191407</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>852720028.27896</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2416246386.481083</v>
+        <v>2902700864.294012</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08449620044992737</v>
+        <v>0.1036898653484907</v>
       </c>
       <c r="G95" t="n">
-        <v>0.042037914317258</v>
+        <v>0.04902800895020342</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>27</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1208123235.363286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1722423486.84313</v>
+        <v>2323381119.057696</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09825957294974787</v>
+        <v>0.09235818173577073</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03203643932196401</v>
+        <v>0.02969801517755952</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>861211759.988866</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5153744528.952153</v>
+        <v>4562371734.134016</v>
       </c>
       <c r="F97" t="n">
-        <v>0.160866416924476</v>
+        <v>0.1293037143107867</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02529094470183728</v>
+        <v>0.01938076158922547</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>38</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2576872413.560865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3795016572.012717</v>
+        <v>3841654704.385105</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08816282677373145</v>
+        <v>0.08379496440840245</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02516101922575958</v>
+        <v>0.02718378418071938</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>30</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1897508324.541008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2139096735.948991</v>
+        <v>3437217850.571743</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1452270765236193</v>
+        <v>0.1375823859194508</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03492711552794417</v>
+        <v>0.03221343660911337</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>36</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1069548291.461108</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3717072382.238785</v>
+        <v>3739741881.998087</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1509732251674297</v>
+        <v>0.1127315040844903</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0230860291302106</v>
+        <v>0.01760712816882746</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>35</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1858536239.142595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2584388627.188922</v>
+        <v>2218775972.846327</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1348410766244829</v>
+        <v>0.1913063822332665</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05695918077522361</v>
+        <v>0.04928304288565028</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>48</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1292194347.656037</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_115.xlsx
+++ b/output/fit_clients/fit_round_115.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1754461874.242452</v>
+        <v>2235353379.908519</v>
       </c>
       <c r="F2" t="n">
-        <v>0.103208291522785</v>
+        <v>0.07247584883749</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0362227065151846</v>
+        <v>0.03471584315737624</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1710136970.81992</v>
+        <v>2636430317.865271</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1684840883759988</v>
+        <v>0.1676244847351252</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04588724977142682</v>
+        <v>0.04603693342552576</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4889728146.864875</v>
+        <v>4921343050.996171</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1215279559283331</v>
+        <v>0.1137693764022873</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02728988410131861</v>
+        <v>0.03428326321982871</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2726944138.098516</v>
+        <v>3353836098.128228</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08342695651980901</v>
+        <v>0.07850387977898517</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04105116862110562</v>
+        <v>0.04711967023989331</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2131976065.615009</v>
+        <v>2168393285.170352</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1163190692366296</v>
+        <v>0.1017184961859403</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04369022033002434</v>
+        <v>0.04872468237101751</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2220815365.859351</v>
+        <v>2441413785.175858</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09850937706650037</v>
+        <v>0.06797111752756037</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0495898147944995</v>
+        <v>0.04182544808599988</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3201912367.759519</v>
+        <v>2746203214.647591</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1678313109004911</v>
+        <v>0.209188363875814</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02765430269924633</v>
+        <v>0.02391921556864726</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1600776299.959949</v>
+        <v>2001286641.233491</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1681485562689459</v>
+        <v>0.1445427126349427</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03073241705403202</v>
+        <v>0.02635629018198646</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5296369077.67722</v>
+        <v>4228258306.982998</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1741262637946731</v>
+        <v>0.1733277085729623</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03497885791024412</v>
+        <v>0.05008021297581056</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3306282665.438076</v>
+        <v>3469937595.909471</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1176138174147028</v>
+        <v>0.1339413397523861</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04251578568704349</v>
+        <v>0.03477882405682632</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2227167999.81401</v>
+        <v>2161783727.408675</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1515522252343447</v>
+        <v>0.1814806724319317</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0530158552000825</v>
+        <v>0.046129380141225</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4651711139.919279</v>
+        <v>3424444268.291502</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1004526345088935</v>
+        <v>0.095287798763537</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02991401448204079</v>
+        <v>0.02973972386833763</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2458532076.100468</v>
+        <v>2868670024.936967</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1620395508182121</v>
+        <v>0.1766008935056562</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03622796404158017</v>
+        <v>0.03183731957646494</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1668002591.408391</v>
+        <v>1809998269.791516</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1079232178190753</v>
+        <v>0.106912014850651</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04214070151349357</v>
+        <v>0.04420428930165957</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1871810508.366613</v>
+        <v>2084745041.395134</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07649303696023411</v>
+        <v>0.07839713086271397</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0319529384785201</v>
+        <v>0.04440724551936563</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3839280777.589845</v>
+        <v>4649014803.565576</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1413105196157716</v>
+        <v>0.1591576611631312</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05306614282672627</v>
+        <v>0.04867696573389432</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3532878080.366511</v>
+        <v>3259148725.875923</v>
       </c>
       <c r="F18" t="n">
-        <v>0.119319708249745</v>
+        <v>0.1537378785394508</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02099756182725625</v>
+        <v>0.02336995959927929</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1138657649.288548</v>
+        <v>869453972.1504149</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1632486029186906</v>
+        <v>0.152735627318672</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01768833667027904</v>
+        <v>0.01856325214688998</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1884165419.98616</v>
+        <v>2760601590.40317</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1278772959652043</v>
+        <v>0.1002743201749045</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02440183415665867</v>
+        <v>0.02021083017829801</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1849451108.746432</v>
+        <v>2700946252.748789</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08351439015785755</v>
+        <v>0.09726150803766104</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04591001521656082</v>
+        <v>0.04484205448143329</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2716569745.365535</v>
+        <v>3152306437.136263</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1112768164728289</v>
+        <v>0.1244250003173564</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04339658314325565</v>
+        <v>0.04539661417185162</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1443530574.828605</v>
+        <v>1037415079.62801</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1302510179960235</v>
+        <v>0.1506370613331805</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04156237392338169</v>
+        <v>0.04875041146392044</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3597167425.577747</v>
+        <v>3930086137.78722</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09982799207007846</v>
+        <v>0.1332359150969703</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02644072782520095</v>
+        <v>0.03583494154515706</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1170196826.592626</v>
+        <v>1286871949.930378</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0880390631499966</v>
+        <v>0.1012731088613027</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0233879346957864</v>
+        <v>0.02822149066688013</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1215755677.673236</v>
+        <v>1041373105.525057</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1031457162122798</v>
+        <v>0.1142061265650045</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03049789247667034</v>
+        <v>0.03820312058650102</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3713385326.409802</v>
+        <v>4130642156.03541</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1332422513579194</v>
+        <v>0.1122197643586078</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01865056494699789</v>
+        <v>0.02089753092938718</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3353686693.463906</v>
+        <v>3633116690.89879</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1096412555541703</v>
+        <v>0.1288535027562688</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03079052755122503</v>
+        <v>0.03849371810075773</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4959476362.812286</v>
+        <v>4486779192.615018</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1487797439268872</v>
+        <v>0.1138619851981395</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03525495206240374</v>
+        <v>0.03587277685593611</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2213710435.812896</v>
+        <v>2284745969.350901</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1087348190432465</v>
+        <v>0.1049836962417857</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02632294118477225</v>
+        <v>0.02517133334555011</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1159478087.314077</v>
+        <v>1269149473.682086</v>
       </c>
       <c r="F31" t="n">
-        <v>0.111124879999765</v>
+        <v>0.08034337709856923</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0399905409505421</v>
+        <v>0.03437322945553035</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1234426379.473571</v>
+        <v>1820756690.203168</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08504631696723132</v>
+        <v>0.1164071414043591</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02808485256233391</v>
+        <v>0.03308322236129659</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2345417936.281717</v>
+        <v>2833227030.938222</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2050856143843702</v>
+        <v>0.1817748775477704</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05206037210086752</v>
+        <v>0.04398056446074156</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1094317411.351726</v>
+        <v>1198062067.661364</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1033425343610587</v>
+        <v>0.1033662729445773</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02164075347101645</v>
+        <v>0.02698042011514035</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1003300044.10374</v>
+        <v>1291114605.433941</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0893581088960832</v>
+        <v>0.09482998642061205</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04231224305474371</v>
+        <v>0.02797053142936638</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2548272068.428651</v>
+        <v>2735652855.599803</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1217291412916537</v>
+        <v>0.1744272276540113</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01808243493840299</v>
+        <v>0.01977552609660979</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2471396045.74914</v>
+        <v>2880848021.698605</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07842034687284381</v>
+        <v>0.1060567652820233</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02956738387540713</v>
+        <v>0.0389810561476292</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1872211294.914226</v>
+        <v>1515909127.126221</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07849123789042702</v>
+        <v>0.08466642246172185</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03498869240232545</v>
+        <v>0.03213409812646485</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1504488485.198453</v>
+        <v>2076492636.988058</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1826800597133861</v>
+        <v>0.1536070295344429</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02155159469539444</v>
+        <v>0.03197530748598249</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1441420129.184915</v>
+        <v>1641008745.507202</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1457567501562419</v>
+        <v>0.112699337301579</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04834891317303624</v>
+        <v>0.05490580967729607</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2441604142.699704</v>
+        <v>2720531922.534145</v>
       </c>
       <c r="F41" t="n">
-        <v>0.141836147860277</v>
+        <v>0.1174287366443207</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04664833234407777</v>
+        <v>0.03967087989989298</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4023156768.099354</v>
+        <v>3785001124.022545</v>
       </c>
       <c r="F42" t="n">
-        <v>0.089663177622859</v>
+        <v>0.07915397625089857</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03628504695412723</v>
+        <v>0.03603691744669971</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2879369459.341505</v>
+        <v>2948271345.996792</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2026874819505668</v>
+        <v>0.1279899171881556</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02144130367356977</v>
+        <v>0.0185757856683911</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2121905343.871843</v>
+        <v>1889866515.112189</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0886657042217782</v>
+        <v>0.0700216093871999</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03113923270263006</v>
+        <v>0.03032779452690004</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1847176625.339321</v>
+        <v>2073168622.837301</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1546037407595598</v>
+        <v>0.1610760951513874</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03401720841949012</v>
+        <v>0.05110970399439138</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4767304231.459457</v>
+        <v>5352673494.563786</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1352140307587261</v>
+        <v>0.1700444101865975</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05276629476139433</v>
+        <v>0.04456923907094085</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3613718995.95008</v>
+        <v>4549419415.425898</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1613518385670362</v>
+        <v>0.1550003530262169</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05301915092373639</v>
+        <v>0.04489146933979439</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4146639586.343526</v>
+        <v>4734402359.107815</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08269626233430379</v>
+        <v>0.07126383446610703</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03585872483068157</v>
+        <v>0.02395166295318425</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1989715223.532349</v>
+        <v>1954760699.961679</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1756152425021887</v>
+        <v>0.1321115519911079</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03118192840954414</v>
+        <v>0.03525289602413454</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2607067705.632526</v>
+        <v>4024635939.506227</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1162779510339052</v>
+        <v>0.1664614204889441</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03516634486641424</v>
+        <v>0.03276316770195056</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1534361782.57665</v>
+        <v>969618861.9835494</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1534149470322274</v>
+        <v>0.130943913708205</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03346629683712505</v>
+        <v>0.04568505516884994</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3721000254.822547</v>
+        <v>5091705044.787795</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08441278259126483</v>
+        <v>0.117726739220182</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05312708244592699</v>
+        <v>0.04776401372388991</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2682793179.641407</v>
+        <v>3723089153.522155</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1588509245894155</v>
+        <v>0.1335707474527669</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03083483740383358</v>
+        <v>0.03527793652643103</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4643345259.760601</v>
+        <v>3637131782.657537</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1258292337655665</v>
+        <v>0.1553713535686902</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04396782369195318</v>
+        <v>0.04862461074979895</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3210966666.756704</v>
+        <v>3186699528.999909</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1964987944195867</v>
+        <v>0.1497420402402796</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03027542215874108</v>
+        <v>0.02369791544381341</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1175250237.909915</v>
+        <v>1809202597.375097</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1462260783188711</v>
+        <v>0.1433073978292257</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03617301847224458</v>
+        <v>0.05322775500668555</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4122374011.702495</v>
+        <v>3444019351.426271</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1346381270249813</v>
+        <v>0.1507519237481255</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01755262943605961</v>
+        <v>0.02339300344476707</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1859940518.906853</v>
+        <v>1699270637.572923</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1809133366839228</v>
+        <v>0.1454954790471761</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03313284022970004</v>
+        <v>0.02534074820793393</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5210116474.674258</v>
+        <v>3946428274.290535</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1241405491917768</v>
+        <v>0.1146983118456453</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04555885595394163</v>
+        <v>0.03439559512408989</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3249258014.23193</v>
+        <v>2931726781.64609</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2016254230938743</v>
+        <v>0.1820816063548616</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0227945024519431</v>
+        <v>0.02788749728447726</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2383383782.197064</v>
+        <v>3236305011.973467</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1524668913062066</v>
+        <v>0.1284123416170965</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02914845644177238</v>
+        <v>0.02760801745990264</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1336229341.206564</v>
+        <v>1999417061.502124</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1494140812749328</v>
+        <v>0.1438484528642241</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04836457398825635</v>
+        <v>0.03392318103794526</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3813300233.047866</v>
+        <v>3670226402.464613</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1063182480425183</v>
+        <v>0.07430311409131581</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02868797683324687</v>
+        <v>0.04430607798316955</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5530650236.376502</v>
+        <v>4834815875.065379</v>
       </c>
       <c r="F64" t="n">
-        <v>0.13282672038682</v>
+        <v>0.1697053787478966</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02302302074117001</v>
+        <v>0.02871260705313486</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3699438391.12559</v>
+        <v>4213183018.465596</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1342065258559474</v>
+        <v>0.1153284186201982</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02062472641506782</v>
+        <v>0.02613923877104413</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4263845923.538449</v>
+        <v>5019836017.564314</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1561338309653801</v>
+        <v>0.09925222138849779</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04772449849631171</v>
+        <v>0.03702506687872505</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3484060318.34026</v>
+        <v>2258475180.247211</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09937184142947574</v>
+        <v>0.08240938942039094</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03546297438559693</v>
+        <v>0.05006335932456668</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3831713315.557038</v>
+        <v>3726294980.32288</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1163834837690686</v>
+        <v>0.1184122874812355</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03341032402181542</v>
+        <v>0.04622818219668612</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2120525420.761975</v>
+        <v>2012424932.566484</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1150345852414128</v>
+        <v>0.1446780599853483</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05004195452131929</v>
+        <v>0.05990778450728471</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2673038694.398517</v>
+        <v>3472947744.042171</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07410048229313361</v>
+        <v>0.09271710751580356</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03201781477614147</v>
+        <v>0.03339680254255981</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4398975111.125628</v>
+        <v>5464110455.30012</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1860182464113038</v>
+        <v>0.1445866785474927</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02735392276804225</v>
+        <v>0.02851770265566392</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2103088035.672733</v>
+        <v>2037280496.554444</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06816390967501224</v>
+        <v>0.1045120125169039</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04048699485340559</v>
+        <v>0.04120635044727257</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3294871986.388154</v>
+        <v>2194339346.952688</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1056711995054749</v>
+        <v>0.1092359067983007</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04080197409311286</v>
+        <v>0.05278838660101715</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3149761335.762212</v>
+        <v>3059069042.362098</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1614016161843779</v>
+        <v>0.15703660844823</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03272691030289835</v>
+        <v>0.02155856046224694</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2432369110.308729</v>
+        <v>1863579721.417842</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1268725553252478</v>
+        <v>0.110399150119168</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03621864107190523</v>
+        <v>0.03320143345184653</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4066806464.833896</v>
+        <v>3831086556.775543</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1143127476034932</v>
+        <v>0.07879511002215978</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02567598358404661</v>
+        <v>0.02746621782577885</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1683967175.618727</v>
+        <v>2267446950.454652</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1312341088039367</v>
+        <v>0.1703635843470353</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02191541685570019</v>
+        <v>0.03093995524715885</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4007801078.060925</v>
+        <v>3683302086.953136</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1306361892860553</v>
+        <v>0.1345411980517395</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05388920468239092</v>
+        <v>0.03967526015360663</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1639594554.857225</v>
+        <v>1275972538.413564</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1518357189549043</v>
+        <v>0.1143380818663963</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03499199856021443</v>
+        <v>0.03495467300134203</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5181762125.053585</v>
+        <v>3851538673.726204</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08496099977442594</v>
+        <v>0.09131003943773908</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03840751984521407</v>
+        <v>0.02607909828931516</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4809513208.051108</v>
+        <v>3366608836.000168</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1033640502783318</v>
+        <v>0.1099991395207165</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02499186171589636</v>
+        <v>0.01987390317554958</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3504667640.390929</v>
+        <v>4374755117.310193</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1546410042954161</v>
+        <v>0.1694154103423796</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01815788819184098</v>
+        <v>0.02236166137105879</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2461488924.679889</v>
+        <v>2208930711.798688</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1203937316518703</v>
+        <v>0.1351189968260493</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03262721064955875</v>
+        <v>0.04120351575880021</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2094476682.827866</v>
+        <v>2143378311.470407</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09185798694424369</v>
+        <v>0.1029144046321184</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03362341542125472</v>
+        <v>0.03465866497341807</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3602187333.251777</v>
+        <v>3281284025.066802</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1365138608954078</v>
+        <v>0.1738877612205678</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03593531379315499</v>
+        <v>0.03443146131686081</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2395327183.373664</v>
+        <v>2487460839.225242</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1224429777159225</v>
+        <v>0.1553004540830329</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02679006833854612</v>
+        <v>0.02329216912668243</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1285003163.11603</v>
+        <v>1405929768.899585</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1813027497823969</v>
+        <v>0.1204072571999116</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02957945587735669</v>
+        <v>0.03574041240117288</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2832695435.580811</v>
+        <v>3032602305.674435</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1240967672617212</v>
+        <v>0.1601282931573778</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03312359304207409</v>
+        <v>0.03530684920416164</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3105435550.714433</v>
+        <v>3004973969.444175</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1260915818905501</v>
+        <v>0.1287771245501905</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03274424612034282</v>
+        <v>0.04112590824848988</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1816355691.76895</v>
+        <v>1399567747.855944</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09871535482630815</v>
+        <v>0.1231106126419548</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05068286743158356</v>
+        <v>0.05647145587374083</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1948723099.78378</v>
+        <v>1364827719.523384</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1646922796223599</v>
+        <v>0.1778899304586608</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04444800861608531</v>
+        <v>0.03849091224906277</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2014982514.495311</v>
+        <v>2211384829.123918</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09147036983531781</v>
+        <v>0.09875607821284235</v>
       </c>
       <c r="G92" t="n">
-        <v>0.034189719426891</v>
+        <v>0.03479247102935255</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3723672227.789649</v>
+        <v>3761182342.874443</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1149251161760068</v>
+        <v>0.08783732368400468</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05102205010938393</v>
+        <v>0.04655163329742917</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1703834620.901322</v>
+        <v>1638403291.733374</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1618538615751243</v>
+        <v>0.1689900626465673</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03007367726191407</v>
+        <v>0.03327561606322865</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2902700864.294012</v>
+        <v>2695058751.586361</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1036898653484907</v>
+        <v>0.121954641890676</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04902800895020342</v>
+        <v>0.04702659586634993</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2323381119.057696</v>
+        <v>2184542072.806675</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09235818173577073</v>
+        <v>0.09142832031755292</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02969801517755952</v>
+        <v>0.03256001502328735</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4562371734.134016</v>
+        <v>3565505238.229424</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1293037143107867</v>
+        <v>0.1404298106651005</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01938076158922547</v>
+        <v>0.01900829741212612</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3841654704.385105</v>
+        <v>3012251861.320307</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08379496440840245</v>
+        <v>0.09128166636753346</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02718378418071938</v>
+        <v>0.02944584039166344</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3437217850.571743</v>
+        <v>3187563810.29921</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1375823859194508</v>
+        <v>0.1394672429889356</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03221343660911337</v>
+        <v>0.03215720435563169</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3739741881.998087</v>
+        <v>4767167153.101624</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1127315040844903</v>
+        <v>0.1353918473966914</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01760712816882746</v>
+        <v>0.02160002341981978</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2218775972.846327</v>
+        <v>2621686644.38748</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1913063822332665</v>
+        <v>0.1401640137141203</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04928304288565028</v>
+        <v>0.03942344247040933</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_115.xlsx
+++ b/output/fit_clients/fit_round_115.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2235353379.908519</v>
+        <v>2501591971.75473</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07247584883749</v>
+        <v>0.09006429786590689</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03471584315737624</v>
+        <v>0.03796082372119629</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2636430317.865271</v>
+        <v>2610339986.540745</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1676244847351252</v>
+        <v>0.1342125252179879</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04603693342552576</v>
+        <v>0.04390317828003409</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4921343050.996171</v>
+        <v>4867867363.638323</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1137693764022873</v>
+        <v>0.1508076537799668</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03428326321982871</v>
+        <v>0.03351177187666885</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>70</v>
+      </c>
+      <c r="J4" t="n">
+        <v>114</v>
+      </c>
+      <c r="K4" t="n">
+        <v>151.6351529606431</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3353836098.128228</v>
+        <v>3421641957.912887</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07850387977898517</v>
+        <v>0.1098313118610872</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04711967023989331</v>
+        <v>0.0488582513891501</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>47</v>
+      </c>
+      <c r="J5" t="n">
+        <v>109</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2168393285.170352</v>
+        <v>2436888827.074336</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1017184961859403</v>
+        <v>0.121008674735673</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04872468237101751</v>
+        <v>0.04180310194197014</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2441413785.175858</v>
+        <v>2629244518.441371</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06797111752756037</v>
+        <v>0.09858936366784203</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04182544808599988</v>
+        <v>0.03998652296148798</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2746203214.647591</v>
+        <v>3773360495.340859</v>
       </c>
       <c r="F8" t="n">
-        <v>0.209188363875814</v>
+        <v>0.1662015413033647</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02391921556864726</v>
+        <v>0.02578947718993757</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>33</v>
+      </c>
+      <c r="J8" t="n">
+        <v>114</v>
+      </c>
+      <c r="K8" t="n">
+        <v>131.3748929599539</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2001286641.233491</v>
+        <v>1421685596.40175</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1445427126349427</v>
+        <v>0.1751164225666764</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02635629018198646</v>
+        <v>0.02750625521964817</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +785,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4228258306.982998</v>
+        <v>3823532970.764744</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1733277085729623</v>
+        <v>0.2034155490222053</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05008021297581056</v>
+        <v>0.03582018706203247</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>106</v>
+      </c>
+      <c r="J10" t="n">
+        <v>114</v>
+      </c>
+      <c r="K10" t="n">
+        <v>148.2638233283744</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3469937595.909471</v>
+        <v>3881356399.062241</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1339413397523861</v>
+        <v>0.1742996598735785</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03477882405682632</v>
+        <v>0.04881056946885166</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>47</v>
+      </c>
+      <c r="J11" t="n">
+        <v>115</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2161783727.408675</v>
+        <v>3129198785.661734</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1814806724319317</v>
+        <v>0.1295391918352659</v>
       </c>
       <c r="G12" t="n">
-        <v>0.046129380141225</v>
+        <v>0.04020749649234986</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3424444268.291502</v>
+        <v>3865694827.576344</v>
       </c>
       <c r="F13" t="n">
-        <v>0.095287798763537</v>
+        <v>0.09693198618472938</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02973972386833763</v>
+        <v>0.02009693344564723</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>57</v>
+      </c>
+      <c r="J13" t="n">
+        <v>115</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2868670024.936967</v>
+        <v>3801840407.560512</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1766008935056562</v>
+        <v>0.1368089512602786</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03183731957646494</v>
+        <v>0.03951869390484537</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>115</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1809998269.791516</v>
+        <v>1588118361.498125</v>
       </c>
       <c r="F15" t="n">
-        <v>0.106912014850651</v>
+        <v>0.1043754222200674</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04420428930165957</v>
+        <v>0.03043842979812131</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2084745041.395134</v>
+        <v>2649768502.650609</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07839713086271397</v>
+        <v>0.110836140010114</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04440724551936563</v>
+        <v>0.04762059241820312</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4649014803.565576</v>
+        <v>5085033411.555001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1591576611631312</v>
+        <v>0.1377060957221295</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04867696573389432</v>
+        <v>0.04738683877179833</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>55</v>
+      </c>
+      <c r="J17" t="n">
+        <v>115</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3259148725.875923</v>
+        <v>2936861570.198139</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1537378785394508</v>
+        <v>0.1655612098288218</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02336995959927929</v>
+        <v>0.02349165789183794</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>30</v>
+      </c>
+      <c r="J18" t="n">
+        <v>113</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>869453972.1504149</v>
+        <v>843967478.9532695</v>
       </c>
       <c r="F19" t="n">
-        <v>0.152735627318672</v>
+        <v>0.1612971864429601</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01856325214688998</v>
+        <v>0.02602831619918902</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2760601590.40317</v>
+        <v>1924536774.535278</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1002743201749045</v>
+        <v>0.1364736775163285</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02021083017829801</v>
+        <v>0.03179463227667971</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2700946252.748789</v>
+        <v>2078997512.149155</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09726150803766104</v>
+        <v>0.07638061686792519</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04484205448143329</v>
+        <v>0.03825950991269227</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3152306437.136263</v>
+        <v>2598408290.6188</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1244250003173564</v>
+        <v>0.1342444076323519</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04539661417185162</v>
+        <v>0.04987977964049586</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>29</v>
+      </c>
+      <c r="J22" t="n">
+        <v>113</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1037415079.62801</v>
+        <v>1154759217.734563</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1506370613331805</v>
+        <v>0.1783863569523777</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04875041146392044</v>
+        <v>0.0379299548543712</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3930086137.78722</v>
+        <v>3412854182.478895</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1332359150969703</v>
+        <v>0.09617768777149682</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03583494154515706</v>
+        <v>0.0251810854240542</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>35</v>
+      </c>
+      <c r="J24" t="n">
+        <v>113</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1286871949.930378</v>
+        <v>1294340648.931044</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1012731088613027</v>
+        <v>0.1218504914503842</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02822149066688013</v>
+        <v>0.02082399502408103</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1041373105.525057</v>
+        <v>1419444553.996058</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1142061265650045</v>
+        <v>0.109648221855706</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03820312058650102</v>
+        <v>0.02823279462426205</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4130642156.03541</v>
+        <v>4568787340.342738</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1122197643586078</v>
+        <v>0.1508533289375296</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02089753092938718</v>
+        <v>0.02520231711428915</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>45</v>
+      </c>
+      <c r="J27" t="n">
+        <v>115</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1417,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3633116690.89879</v>
+        <v>3338579945.538304</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1288535027562688</v>
+        <v>0.09652671595919457</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03849371810075773</v>
+        <v>0.04570513575492361</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+      <c r="J28" t="n">
+        <v>113</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4486779192.615018</v>
+        <v>3873102613.969358</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1138619851981395</v>
+        <v>0.136059849981115</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03587277685593611</v>
+        <v>0.03648863970944519</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>106</v>
+      </c>
+      <c r="J29" t="n">
+        <v>115</v>
+      </c>
+      <c r="K29" t="n">
+        <v>162.8213003945935</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2284745969.350901</v>
+        <v>1516640689.963553</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1049836962417857</v>
+        <v>0.1301491511668502</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02517133334555011</v>
+        <v>0.0324490742274087</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1269149473.682086</v>
+        <v>917507464.803049</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08034337709856923</v>
+        <v>0.1029750057489476</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03437322945553035</v>
+        <v>0.04755715897845725</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1820756690.203168</v>
+        <v>1505912469.154528</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1164071414043591</v>
+        <v>0.09320591005554124</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03308322236129659</v>
+        <v>0.03119427221437562</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2833227030.938222</v>
+        <v>1928174857.758054</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1817748775477704</v>
+        <v>0.1830995094785174</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04398056446074156</v>
+        <v>0.05088853818630711</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1629,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1198062067.661364</v>
+        <v>1215803359.237285</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1033662729445773</v>
+        <v>0.07571803361658909</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02698042011514035</v>
+        <v>0.02053242476259502</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1291114605.433941</v>
+        <v>1240937093.354601</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09482998642061205</v>
+        <v>0.09290468075302365</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02797053142936638</v>
+        <v>0.04206667716424293</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2735652855.599803</v>
+        <v>2523045054.357132</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1744272276540113</v>
+        <v>0.13969902924074</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01977552609660979</v>
+        <v>0.0239196502263693</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2880848021.698605</v>
+        <v>2196407557.52867</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1060567652820233</v>
+        <v>0.08812959106115513</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0389810561476292</v>
+        <v>0.02897911002417054</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1515909127.126221</v>
+        <v>1583715223.422797</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08466642246172185</v>
+        <v>0.1121743359811884</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03213409812646485</v>
+        <v>0.03552605008021076</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1804,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2076492636.988058</v>
+        <v>2170408116.164447</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1536070295344429</v>
+        <v>0.179015666998964</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03197530748598249</v>
+        <v>0.02492440764024232</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1839,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1641008745.507202</v>
+        <v>1773082905.072075</v>
       </c>
       <c r="F40" t="n">
-        <v>0.112699337301579</v>
+        <v>0.1317678620819883</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05490580967729607</v>
+        <v>0.04873368097580127</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2720531922.534145</v>
+        <v>2492709702.499527</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1174287366443207</v>
+        <v>0.1512883449126632</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03967087989989298</v>
+        <v>0.02915228474021861</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1903,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3785001124.022545</v>
+        <v>3369508015.385025</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07915397625089857</v>
+        <v>0.1116166263991904</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03603691744669971</v>
+        <v>0.03012785917888155</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>42</v>
+      </c>
+      <c r="J42" t="n">
+        <v>113</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2948271345.996792</v>
+        <v>1903464416.396928</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1279899171881556</v>
+        <v>0.1824048417122201</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0185757856683911</v>
+        <v>0.0258354708865072</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1889866515.112189</v>
+        <v>1884346886.586285</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0700216093871999</v>
+        <v>0.07161719732239845</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03032779452690004</v>
+        <v>0.02899893496568356</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2073168622.837301</v>
+        <v>2522351436.24912</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1610760951513874</v>
+        <v>0.1559064298841059</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05110970399439138</v>
+        <v>0.05022726025034952</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2049,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5352673494.563786</v>
+        <v>3745408143.301129</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1700444101865975</v>
+        <v>0.1562572526035956</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04456923907094085</v>
+        <v>0.05183905780994866</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>66</v>
+      </c>
+      <c r="J46" t="n">
+        <v>114</v>
+      </c>
+      <c r="K46" t="n">
+        <v>131.5089548542931</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2080,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4549419415.425898</v>
+        <v>4386392526.263299</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1550003530262169</v>
+        <v>0.1682909166982429</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04489146933979439</v>
+        <v>0.04163299008954055</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>51</v>
+      </c>
+      <c r="J47" t="n">
+        <v>114</v>
+      </c>
+      <c r="K47" t="n">
+        <v>126.8256682614313</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2123,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4734402359.107815</v>
+        <v>3081097156.572776</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07126383446610703</v>
+        <v>0.1007377230143123</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02395166295318425</v>
+        <v>0.03379548490630702</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>44</v>
+      </c>
+      <c r="J48" t="n">
+        <v>114</v>
+      </c>
+      <c r="K48" t="n">
+        <v>88.96744933625018</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1954760699.961679</v>
+        <v>1956766658.106413</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1321115519911079</v>
+        <v>0.1914731217517407</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03525289602413454</v>
+        <v>0.04280680722107831</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4024635939.506227</v>
+        <v>3163326207.179483</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1664614204889441</v>
+        <v>0.1209971726103362</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03276316770195056</v>
+        <v>0.04350984527835877</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>40</v>
+      </c>
+      <c r="J50" t="n">
+        <v>114</v>
+      </c>
+      <c r="K50" t="n">
+        <v>91.52369804481148</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>969618861.9835494</v>
+        <v>939649493.1227514</v>
       </c>
       <c r="F51" t="n">
-        <v>0.130943913708205</v>
+        <v>0.1943157870966396</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04568505516884994</v>
+        <v>0.05179699187296332</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5091705044.787795</v>
+        <v>4883021186.470126</v>
       </c>
       <c r="F52" t="n">
-        <v>0.117726739220182</v>
+        <v>0.08723191896286565</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04776401372388991</v>
+        <v>0.04709990000174374</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>89</v>
+      </c>
+      <c r="J52" t="n">
+        <v>115</v>
+      </c>
+      <c r="K52" t="n">
+        <v>159.1119298822875</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3723089153.522155</v>
+        <v>3560390442.730463</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1335707474527669</v>
+        <v>0.1982568129535116</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03527793652643103</v>
+        <v>0.03249916477092376</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>12</v>
+      </c>
+      <c r="J53" t="n">
+        <v>115</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3637131782.657537</v>
+        <v>4967871742.138959</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1553713535686902</v>
+        <v>0.1304576330083991</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04862461074979895</v>
+        <v>0.03541673675603521</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>52</v>
+      </c>
+      <c r="J54" t="n">
+        <v>115</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3186699528.999909</v>
+        <v>4735158655.279738</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1497420402402796</v>
+        <v>0.1937926447054467</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02369791544381341</v>
+        <v>0.03236093093637402</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>52</v>
+      </c>
+      <c r="J55" t="n">
+        <v>115</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1809202597.375097</v>
+        <v>1813283176.982884</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1433073978292257</v>
+        <v>0.1585553368054433</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05322775500668555</v>
+        <v>0.04803473754383859</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2444,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3444019351.426271</v>
+        <v>4211774961.19104</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1507519237481255</v>
+        <v>0.1750373731299693</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02339300344476707</v>
+        <v>0.0245837349672965</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>45</v>
+      </c>
+      <c r="J57" t="n">
+        <v>114</v>
+      </c>
+      <c r="K57" t="n">
+        <v>146.0165493248722</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1699270637.572923</v>
+        <v>1724134568.323313</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1454954790471761</v>
+        <v>0.1750493692560738</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02534074820793393</v>
+        <v>0.02895575519917594</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3946428274.290535</v>
+        <v>4223854458.241004</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1146983118456453</v>
+        <v>0.08015776982401167</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03439559512408989</v>
+        <v>0.03867525872401498</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>56</v>
+      </c>
+      <c r="J59" t="n">
+        <v>114</v>
+      </c>
+      <c r="K59" t="n">
+        <v>143.7313843450627</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2931726781.64609</v>
+        <v>2926847905.847309</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1820816063548616</v>
+        <v>0.1276045488020873</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02788749728447726</v>
+        <v>0.02547571507750999</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>16</v>
+      </c>
+      <c r="J60" t="n">
+        <v>110</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3236305011.973467</v>
+        <v>3402520342.792839</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1284123416170965</v>
+        <v>0.1448932356576777</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02760801745990264</v>
+        <v>0.02627849552215135</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>110</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1999417061.502124</v>
+        <v>2007127088.688492</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1438484528642241</v>
+        <v>0.185261820640054</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03392318103794526</v>
+        <v>0.0321984224387928</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3670226402.464613</v>
+        <v>4602992418.210993</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07430311409131581</v>
+        <v>0.08978239917457009</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04430607798316955</v>
+        <v>0.04207184337796834</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>57</v>
+      </c>
+      <c r="J63" t="n">
+        <v>114</v>
+      </c>
+      <c r="K63" t="n">
+        <v>138.4401975012772</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2695,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4834815875.065379</v>
+        <v>5304208357.821997</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1697053787478966</v>
+        <v>0.1555357182272284</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02871260705313486</v>
+        <v>0.03176084473253067</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>57</v>
+      </c>
+      <c r="J64" t="n">
+        <v>114</v>
+      </c>
+      <c r="K64" t="n">
+        <v>148.4086698466362</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4213183018.465596</v>
+        <v>4530047574.731722</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1153284186201982</v>
+        <v>0.1501573966072277</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02613923877104413</v>
+        <v>0.02071688193753041</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>95</v>
+      </c>
+      <c r="J65" t="n">
+        <v>115</v>
+      </c>
+      <c r="K65" t="n">
+        <v>159.1262948761086</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5019836017.564314</v>
+        <v>5619736068.410131</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09925222138849779</v>
+        <v>0.1167123459636172</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03702506687872505</v>
+        <v>0.03290532710046159</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>56</v>
+      </c>
+      <c r="J66" t="n">
+        <v>115</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2258475180.247211</v>
+        <v>3360118507.614</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08240938942039094</v>
+        <v>0.0787980703764449</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05006335932456668</v>
+        <v>0.04079721736470421</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2839,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3726294980.32288</v>
+        <v>5422798773.16982</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1184122874812355</v>
+        <v>0.1286814750906092</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04622818219668612</v>
+        <v>0.04456428557637446</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>57</v>
+      </c>
+      <c r="J68" t="n">
+        <v>115</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2012424932.566484</v>
+        <v>2131372736.482863</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1446780599853483</v>
+        <v>0.1752126174228243</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05990778450728471</v>
+        <v>0.0482834181473992</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2909,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3472947744.042171</v>
+        <v>2842705273.653466</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09271710751580356</v>
+        <v>0.08359523814952592</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03339680254255981</v>
+        <v>0.0361934197911152</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>14</v>
+      </c>
+      <c r="J70" t="n">
+        <v>114</v>
+      </c>
+      <c r="K70" t="n">
+        <v>69.89447585058574</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2946,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5464110455.30012</v>
+        <v>4079479834.992367</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1445866785474927</v>
+        <v>0.1561170212199357</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02851770265566392</v>
+        <v>0.02618425101482193</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>94</v>
+      </c>
+      <c r="J71" t="n">
+        <v>115</v>
+      </c>
+      <c r="K71" t="n">
+        <v>157.0300165209988</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2037280496.554444</v>
+        <v>1502938285.697258</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1045120125169039</v>
+        <v>0.0773196251390907</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04120635044727257</v>
+        <v>0.05235924488139369</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2194339346.952688</v>
+        <v>2520117851.327935</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1092359067983007</v>
+        <v>0.1001431033789744</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05278838660101715</v>
+        <v>0.0417227889321429</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>111</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3059069042.362098</v>
+        <v>3578685050.611942</v>
       </c>
       <c r="F74" t="n">
-        <v>0.15703660844823</v>
+        <v>0.1836218475408619</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02155856046224694</v>
+        <v>0.02912569751344286</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>38</v>
+      </c>
+      <c r="J74" t="n">
+        <v>115</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1863579721.417842</v>
+        <v>1609389673.993954</v>
       </c>
       <c r="F75" t="n">
-        <v>0.110399150119168</v>
+        <v>0.1553112793617331</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03320143345184653</v>
+        <v>0.02500706760881446</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3831086556.775543</v>
+        <v>4832362793.203644</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07879511002215978</v>
+        <v>0.1064059305171265</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02746621782577885</v>
+        <v>0.03054867536768685</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>53</v>
+      </c>
+      <c r="J76" t="n">
+        <v>115</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2267446950.454652</v>
+        <v>2103379090.081367</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1703635843470353</v>
+        <v>0.160295279645129</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03093995524715885</v>
+        <v>0.03172016596928688</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3683302086.953136</v>
+        <v>2916176168.228868</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1345411980517395</v>
+        <v>0.1314399963981678</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03967526015360663</v>
+        <v>0.03730389987909215</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>57</v>
+      </c>
+      <c r="J78" t="n">
+        <v>113</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1275972538.413564</v>
+        <v>1722191168.082098</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1143380818663963</v>
+        <v>0.1095347301765822</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03495467300134203</v>
+        <v>0.03311942416631573</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3851538673.726204</v>
+        <v>5609840000.477175</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09131003943773908</v>
+        <v>0.09077686187838963</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02607909828931516</v>
+        <v>0.02572381097132107</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>55</v>
+      </c>
+      <c r="J80" t="n">
+        <v>115</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3298,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3366608836.000168</v>
+        <v>4534587165.908449</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1099991395207165</v>
+        <v>0.09530964419762075</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01987390317554958</v>
+        <v>0.02376667586307583</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>51</v>
+      </c>
+      <c r="J81" t="n">
+        <v>115</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3333,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4374755117.310193</v>
+        <v>4061300455.985338</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1694154103423796</v>
+        <v>0.1914705952498823</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02236166137105879</v>
+        <v>0.0193810575324493</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>78</v>
+      </c>
+      <c r="J82" t="n">
+        <v>115</v>
+      </c>
+      <c r="K82" t="n">
+        <v>161.2369698924979</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2208930711.798688</v>
+        <v>1650630442.927579</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1351189968260493</v>
+        <v>0.1196466777481618</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04120351575880021</v>
+        <v>0.04303057707440164</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2143378311.470407</v>
+        <v>2377689248.704399</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1029144046321184</v>
+        <v>0.1065477028147414</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03465866497341807</v>
+        <v>0.04128144243841828</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3281284025.066802</v>
+        <v>2620867492.20443</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1738877612205678</v>
+        <v>0.1795585569879127</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03443146131686081</v>
+        <v>0.05520656515483238</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2487460839.225242</v>
+        <v>2315714435.047246</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1553004540830329</v>
+        <v>0.1222257929145718</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02329216912668243</v>
+        <v>0.01874898702157315</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1405929768.899585</v>
+        <v>1025164731.981958</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1204072571999116</v>
+        <v>0.1349827911131515</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03574041240117288</v>
+        <v>0.03319957058020477</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3032602305.674435</v>
+        <v>2589647183.160257</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1601282931573778</v>
+        <v>0.1545351160505008</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03530684920416164</v>
+        <v>0.03546621874789619</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>17</v>
+      </c>
+      <c r="J88" t="n">
+        <v>106</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3004973969.444175</v>
+        <v>3463955382.949385</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1287771245501905</v>
+        <v>0.1364394587446104</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04112590824848988</v>
+        <v>0.03142943407259861</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1399567747.855944</v>
+        <v>2028006870.452506</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1231106126419548</v>
+        <v>0.1119133566901844</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05647145587374083</v>
+        <v>0.03440587841285956</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1364827719.523384</v>
+        <v>2024396558.570023</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1778899304586608</v>
+        <v>0.134978053972456</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03849091224906277</v>
+        <v>0.05943539095347082</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2211384829.123918</v>
+        <v>2383032774.799211</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09875607821284235</v>
+        <v>0.08556107108253497</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03479247102935255</v>
+        <v>0.04746013045364218</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3720,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3761182342.874443</v>
+        <v>4179085650.13329</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08783732368400468</v>
+        <v>0.08880869294967596</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04655163329742917</v>
+        <v>0.05457135836139293</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>53</v>
+      </c>
+      <c r="J93" t="n">
+        <v>114</v>
+      </c>
+      <c r="K93" t="n">
+        <v>143.9310303870379</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1638403291.733374</v>
+        <v>1864083588.946535</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1689900626465673</v>
+        <v>0.1633300128711932</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03327561606322865</v>
+        <v>0.04305971447781344</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2695058751.586361</v>
+        <v>2631361174.879994</v>
       </c>
       <c r="F95" t="n">
-        <v>0.121954641890676</v>
+        <v>0.09309502198631316</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04702659586634993</v>
+        <v>0.03553311722515714</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2184542072.806675</v>
+        <v>2273302193.370582</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09142832031755292</v>
+        <v>0.09462667800417694</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03256001502328735</v>
+        <v>0.03922308419270762</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3565505238.229424</v>
+        <v>5201005991.583674</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1404298106651005</v>
+        <v>0.1750615862232312</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01900829741212612</v>
+        <v>0.02237974004957283</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>54</v>
+      </c>
+      <c r="J97" t="n">
+        <v>115</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3012251861.320307</v>
+        <v>3249661067.689519</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09128166636753346</v>
+        <v>0.08627025969841257</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02944584039166344</v>
+        <v>0.03257840736705703</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>27</v>
+      </c>
+      <c r="J98" t="n">
+        <v>114</v>
+      </c>
+      <c r="K98" t="n">
+        <v>86.37497308628691</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3187563810.29921</v>
+        <v>2447352753.836181</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1394672429889356</v>
+        <v>0.1121356947621563</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03215720435563169</v>
+        <v>0.02540038643334535</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4767167153.101624</v>
+        <v>4409606625.378675</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1353918473966914</v>
+        <v>0.1199353491097578</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02160002341981978</v>
+        <v>0.02038124069271167</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>47</v>
+      </c>
+      <c r="J100" t="n">
+        <v>114</v>
+      </c>
+      <c r="K100" t="n">
+        <v>142.4207063398129</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2621686644.38748</v>
+        <v>2274852968.14467</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1401640137141203</v>
+        <v>0.1394728321586262</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03942344247040933</v>
+        <v>0.05508342127597195</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>103</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
